--- a/Login Data.xlsx
+++ b/Login Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\KTPMNC\LAB04_4701104169\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\KTPMNC\LAB04_KTNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B6BE1E-F64C-41F2-BB35-C57CE3C19875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC01E72-CF1E-4633-86CF-55D8C555250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>VerifyText</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username is required</t>
+  </si>
+  <si>
+    <t>Epic sadface: Password is required</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username and password do not match any user in this service</t>
   </si>
 </sst>
 </file>
@@ -351,17 +369,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -375,6 +393,60 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
